--- a/look_up.xlsx
+++ b/look_up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\serverh73000\DATAH73000\h73000\H73700\data\!projekt\3023_LandCube\Publications\2024_UrbanFoodeHANPP\Submission\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455628CC-2557-449D-854C-64554B0E91C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F63BC6C-AAF5-41FA-BC09-D4809EA55041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="849" xr2:uid="{C58F1553-3EA0-48DF-A8D6-CF7881DB942C}"/>
   </bookViews>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3362" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="677">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -2318,9 +2318,6 @@
     <t>factors</t>
   </si>
   <si>
-    <t>World Bank Analytical Classifications (presented in World Development Indicators)</t>
-  </si>
-  <si>
     <t>Date of download</t>
   </si>
   <si>
@@ -2345,10 +2342,55 @@
     <t>7. Dec 23</t>
   </si>
   <si>
-    <t>Global Dietary Database Codebook, Roux et al. 2023 (https://doi.org/10.1016/j.dib.2023.109725)</t>
-  </si>
-  <si>
     <t>Sheet name</t>
+  </si>
+  <si>
+    <t>'Copyright © 2018 by United Nations, made available under a Creative Commons license CC BY 3.0 IGO: http://creativecommons.org/licenses/by/3.0/igo/</t>
+  </si>
+  <si>
+    <t>Bank's fiscal year:</t>
+  </si>
+  <si>
+    <t>Data for calendar year :</t>
+  </si>
+  <si>
+    <t>Low income (L)</t>
+  </si>
+  <si>
+    <t>Lower middle income (LM)</t>
+  </si>
+  <si>
+    <t>Upper middle income (UM)</t>
+  </si>
+  <si>
+    <t>High income (H)</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>&lt;= 1,045</t>
+  </si>
+  <si>
+    <t>1,046 - 4,095</t>
+  </si>
+  <si>
+    <t>4,096 - 12,695</t>
+  </si>
+  <si>
+    <t>&gt; 12,695</t>
+  </si>
+  <si>
+    <t>World Bank Analytical Classifications (presented in World Development Indicators), GNI per capita in US$ (Atlas methodology), Country Analytical History</t>
+  </si>
+  <si>
+    <t>Creative Commons Attribution 4.0 (CC-BY 4.0)</t>
+  </si>
+  <si>
+    <t>Roux et al. 2023 (https://doi.org/10.1016/j.dib.2023.109725), Global Dietary Database Codebook (also: Del Gobbo et al. 2015 (https://doi.org/10.3945/ajcn.114.087403) and Miller et al. 2022 (https://doi.org/10.1016/S2542-5196(21)00352-1))</t>
+  </si>
+  <si>
+    <t>https://github.com/lisakaufmannsec/Food-eHANPP</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2403,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2503,6 +2545,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2524,7 +2576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2556,6 +2608,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2563,7 +2626,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2616,6 +2679,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma" xfId="2" builtinId="3"/>
@@ -2939,17 +3011,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3304C6-2DA6-4156-8786-187F0DF18E1C}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="138.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="214.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2991,14 +3061,19 @@
         <v>643</v>
       </c>
     </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>676</v>
+      </c>
+    </row>
     <row r="15" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>647</v>
@@ -3007,10 +3082,10 @@
         <v>648</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>646</v>
       </c>
@@ -3018,61 +3093,70 @@
         <v>649</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>652</v>
+        <v>673</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>209</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D19" s="30">
         <v>45329</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>210</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D20" s="30">
         <v>45329</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>650</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>651</v>
       </c>
       <c r="B22" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>658</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>659</v>
       </c>
       <c r="D22" s="29"/>
     </row>
@@ -3087,13 +3171,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082BEF54-5E43-44CC-8997-BEFA8E0C7053}">
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:N192"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3106,7 +3190,7 @@
     <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>212</v>
       </c>
@@ -3128,8 +3212,14 @@
       <c r="G1" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M1" s="32" t="s">
+        <v>662</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3151,8 +3241,14 @@
       <c r="G2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M2" s="33" t="s">
+        <v>663</v>
+      </c>
+      <c r="N2" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3174,8 +3270,14 @@
       <c r="G3" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M3" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3197,8 +3299,14 @@
       <c r="G4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M4" s="32" t="s">
+        <v>665</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3220,8 +3328,14 @@
       <c r="G5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="M5" s="32" t="s">
+        <v>666</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -3243,8 +3357,14 @@
       <c r="G6" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M6" s="33" t="s">
+        <v>667</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -3267,7 +3387,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -3290,7 +3410,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -3313,7 +3433,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -3336,7 +3456,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -3359,7 +3479,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
@@ -3382,7 +3502,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -3405,7 +3525,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -3428,7 +3548,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
@@ -3451,7 +3571,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18</v>
       </c>
@@ -28632,7 +28752,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49145,7 +49265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE51ADBC-2396-4090-9703-7C46B3839917}">
   <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A83" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
